--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H2">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I2">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J2">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.004819666666666667</v>
+        <v>0.1271313333333333</v>
       </c>
       <c r="N2">
-        <v>0.014459</v>
+        <v>0.381394</v>
       </c>
       <c r="O2">
-        <v>4.905670228042789E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="P2">
-        <v>4.90567022804279E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="Q2">
-        <v>0.04581422510555556</v>
+        <v>7.141001869695779</v>
       </c>
       <c r="R2">
-        <v>0.41232802595</v>
+        <v>64.26901682726199</v>
       </c>
       <c r="S2">
-        <v>6.852828720883688E-07</v>
+        <v>6.278686361719239E-05</v>
       </c>
       <c r="T2">
-        <v>6.852828720883691E-07</v>
+        <v>6.278686361719237E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H3">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I3">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J3">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.012926</v>
       </c>
       <c r="O3">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="P3">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="Q3">
-        <v>0.04095682092222222</v>
+        <v>0.2420189886775555</v>
       </c>
       <c r="R3">
-        <v>0.3686113883</v>
+        <v>2.178170898098</v>
       </c>
       <c r="S3">
-        <v>6.126264890112909E-07</v>
+        <v>2.127938559903482E-06</v>
       </c>
       <c r="T3">
-        <v>6.126264890112911E-07</v>
+        <v>2.127938559903482E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H4">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I4">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J4">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.61914433333333</v>
+        <v>18.891577</v>
       </c>
       <c r="N4">
-        <v>49.857433</v>
+        <v>56.67473100000001</v>
       </c>
       <c r="O4">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="P4">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="Q4">
-        <v>157.9763233036278</v>
+        <v>1061.145062679291</v>
       </c>
       <c r="R4">
-        <v>1421.78690973265</v>
+        <v>9550.305564113614</v>
       </c>
       <c r="S4">
-        <v>0.002362988096078112</v>
+        <v>0.009330059219175093</v>
       </c>
       <c r="T4">
-        <v>0.002362988096078112</v>
+        <v>0.009330059219175093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H5">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I5">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J5">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.001810333333333333</v>
+        <v>0.01396866666666667</v>
       </c>
       <c r="N5">
-        <v>0.005431</v>
+        <v>0.041906</v>
       </c>
       <c r="O5">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="P5">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="Q5">
-        <v>0.01720845539444444</v>
+        <v>0.7846238387375555</v>
       </c>
       <c r="R5">
-        <v>0.15487609855</v>
+        <v>7.061614548638</v>
       </c>
       <c r="S5">
-        <v>2.574017067786106E-07</v>
+        <v>6.898761665736912E-06</v>
       </c>
       <c r="T5">
-        <v>2.574017067786107E-07</v>
+        <v>6.898761665736911E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H6">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I6">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J6">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.62995566666667</v>
+        <v>81.50486266666667</v>
       </c>
       <c r="N6">
-        <v>181.889867</v>
+        <v>244.514588</v>
       </c>
       <c r="O6">
-        <v>0.6171185457670396</v>
+        <v>0.7542226514793733</v>
       </c>
       <c r="P6">
-        <v>0.6171185457670397</v>
+        <v>0.7542226514793734</v>
       </c>
       <c r="Q6">
-        <v>576.3291590813723</v>
+        <v>4578.150495487324</v>
       </c>
       <c r="R6">
-        <v>5186.962431732351</v>
+        <v>41203.35445938592</v>
       </c>
       <c r="S6">
-        <v>0.00862065222086807</v>
+        <v>0.04025313478756872</v>
       </c>
       <c r="T6">
-        <v>0.008620652220868073</v>
+        <v>0.04025313478756872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H7">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I7">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J7">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.98681533333333</v>
+        <v>7.522875666666667</v>
       </c>
       <c r="N7">
-        <v>62.960446</v>
+        <v>22.568627</v>
       </c>
       <c r="O7">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="P7">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="Q7">
-        <v>199.4940207338111</v>
+        <v>422.5619899722245</v>
       </c>
       <c r="R7">
-        <v>1795.4461866043</v>
+        <v>3803.057909750021</v>
       </c>
       <c r="S7">
-        <v>0.002984004098682112</v>
+        <v>0.003715352904021263</v>
       </c>
       <c r="T7">
-        <v>0.002984004098682113</v>
+        <v>0.003715352904021263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,43 +918,43 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H8">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I8">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J8">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.004819666666666667</v>
+        <v>0.1271313333333333</v>
       </c>
       <c r="N8">
-        <v>0.014459</v>
+        <v>0.381394</v>
       </c>
       <c r="O8">
-        <v>4.905670228042789E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="P8">
-        <v>4.90567022804279E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="Q8">
-        <v>1.496631963956111</v>
+        <v>39.47758844049223</v>
       </c>
       <c r="R8">
-        <v>13.469687675605</v>
+        <v>355.29829596443</v>
       </c>
       <c r="S8">
-        <v>2.238641488219193E-05</v>
+        <v>0.0003471045109044947</v>
       </c>
       <c r="T8">
-        <v>2.238641488219193E-05</v>
+        <v>0.0003471045109044947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H9">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I9">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J9">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.012926</v>
       </c>
       <c r="O9">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="P9">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="Q9">
         <v>1.337953161774444</v>
@@ -1013,10 +1013,10 @@
         <v>12.04157845597</v>
       </c>
       <c r="S9">
-        <v>2.001291920376325E-05</v>
+        <v>1.176387910651845E-05</v>
       </c>
       <c r="T9">
-        <v>2.001291920376325E-05</v>
+        <v>1.176387910651845E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H10">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I10">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J10">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.61914433333333</v>
+        <v>18.891577</v>
       </c>
       <c r="N10">
-        <v>49.857433</v>
+        <v>56.67473100000001</v>
       </c>
       <c r="O10">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="P10">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="Q10">
-        <v>5160.676939525571</v>
+        <v>5866.326437735272</v>
       </c>
       <c r="R10">
-        <v>46446.09245573014</v>
+        <v>52796.93793961745</v>
       </c>
       <c r="S10">
-        <v>0.07719269521399039</v>
+        <v>0.05157935044704113</v>
       </c>
       <c r="T10">
-        <v>0.0771926952139904</v>
+        <v>0.05157935044704114</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,43 +1104,43 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H11">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I11">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J11">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.001810333333333333</v>
+        <v>0.01396866666666667</v>
       </c>
       <c r="N11">
-        <v>0.005431</v>
+        <v>0.041906</v>
       </c>
       <c r="O11">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="P11">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="Q11">
-        <v>0.5621556259938889</v>
+        <v>4.337634627674444</v>
       </c>
       <c r="R11">
-        <v>5.059400633945001</v>
+        <v>39.03871164907</v>
       </c>
       <c r="S11">
-        <v>8.408646464152734E-06</v>
+        <v>3.813841233465591E-05</v>
       </c>
       <c r="T11">
-        <v>8.408646464152736E-06</v>
+        <v>3.813841233465591E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H12">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I12">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J12">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.62995566666667</v>
+        <v>81.50486266666667</v>
       </c>
       <c r="N12">
-        <v>181.889867</v>
+        <v>244.514588</v>
       </c>
       <c r="O12">
-        <v>0.6171185457670396</v>
+        <v>0.7542226514793733</v>
       </c>
       <c r="P12">
-        <v>0.6171185457670397</v>
+        <v>0.7542226514793734</v>
       </c>
       <c r="Q12">
-        <v>18827.17953329593</v>
+        <v>25309.38156541665</v>
       </c>
       <c r="R12">
-        <v>169444.6157996634</v>
+        <v>227784.4340887498</v>
       </c>
       <c r="S12">
-        <v>0.2816143596050011</v>
+        <v>0.2225313362998737</v>
       </c>
       <c r="T12">
-        <v>0.2816143596050012</v>
+        <v>0.2225313362998737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H13">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I13">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J13">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.98681533333333</v>
+        <v>7.522875666666667</v>
       </c>
       <c r="N13">
-        <v>62.960446</v>
+        <v>22.568627</v>
       </c>
       <c r="O13">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="P13">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="Q13">
-        <v>6516.952482781153</v>
+        <v>2336.04872749173</v>
       </c>
       <c r="R13">
-        <v>58652.57234503037</v>
+        <v>21024.43854742557</v>
       </c>
       <c r="S13">
-        <v>0.09747967807758776</v>
+        <v>0.0205395791140421</v>
       </c>
       <c r="T13">
-        <v>0.09747967807758777</v>
+        <v>0.0205395791140421</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H14">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I14">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J14">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.004819666666666667</v>
+        <v>0.1271313333333333</v>
       </c>
       <c r="N14">
-        <v>0.014459</v>
+        <v>0.381394</v>
       </c>
       <c r="O14">
-        <v>4.905670228042789E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="P14">
-        <v>4.90567022804279E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="Q14">
-        <v>0.503944818994</v>
+        <v>16.35249273008289</v>
       </c>
       <c r="R14">
-        <v>4.535503370946</v>
+        <v>147.172434570746</v>
       </c>
       <c r="S14">
-        <v>7.537937226671199E-06</v>
+        <v>0.0001437783870638567</v>
       </c>
       <c r="T14">
-        <v>7.537937226671202E-06</v>
+        <v>0.0001437783870638567</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H15">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I15">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J15">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.012926</v>
       </c>
       <c r="O15">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="P15">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="Q15">
-        <v>0.450514608916</v>
+        <v>0.5542098749037777</v>
       </c>
       <c r="R15">
-        <v>4.054631480244</v>
+        <v>4.987888874134</v>
       </c>
       <c r="S15">
-        <v>6.738735499823771E-06</v>
+        <v>4.872859644324274E-06</v>
       </c>
       <c r="T15">
-        <v>6.738735499823774E-06</v>
+        <v>4.872859644324274E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H16">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I16">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J16">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.61914433333333</v>
+        <v>18.891577</v>
       </c>
       <c r="N16">
-        <v>49.857433</v>
+        <v>56.67473100000001</v>
       </c>
       <c r="O16">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="P16">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="Q16">
-        <v>1737.699360169478</v>
+        <v>2429.962523419098</v>
       </c>
       <c r="R16">
-        <v>15639.2942415253</v>
+        <v>21869.66271077188</v>
       </c>
       <c r="S16">
-        <v>0.0259922678080756</v>
+        <v>0.02136531096571514</v>
       </c>
       <c r="T16">
-        <v>0.02599226780807561</v>
+        <v>0.02136531096571515</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H17">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I17">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J17">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.001810333333333333</v>
+        <v>0.01396866666666667</v>
       </c>
       <c r="N17">
-        <v>0.005431</v>
+        <v>0.041906</v>
       </c>
       <c r="O17">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="P17">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="Q17">
-        <v>0.189288630746</v>
+        <v>1.796744469883778</v>
       </c>
       <c r="R17">
-        <v>1.703597676714</v>
+        <v>16.170700228954</v>
       </c>
       <c r="S17">
-        <v>2.831353280175066E-06</v>
+        <v>1.579777628462425E-05</v>
       </c>
       <c r="T17">
-        <v>2.831353280175068E-06</v>
+        <v>1.579777628462425E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H18">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I18">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J18">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>60.62995566666667</v>
+        <v>81.50486266666667</v>
       </c>
       <c r="N18">
-        <v>181.889867</v>
+        <v>244.514588</v>
       </c>
       <c r="O18">
-        <v>0.6171185457670396</v>
+        <v>0.7542226514793733</v>
       </c>
       <c r="P18">
-        <v>0.6171185457670397</v>
+        <v>0.7542226514793734</v>
       </c>
       <c r="Q18">
-        <v>6339.474106242322</v>
+        <v>10483.70719693863</v>
       </c>
       <c r="R18">
-        <v>57055.2669561809</v>
+        <v>94353.36477244769</v>
       </c>
       <c r="S18">
-        <v>0.09482498095397837</v>
+        <v>0.09217741515656633</v>
       </c>
       <c r="T18">
-        <v>0.09482498095397841</v>
+        <v>0.09217741515656636</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H19">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I19">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J19">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.98681533333333</v>
+        <v>7.522875666666667</v>
       </c>
       <c r="N19">
-        <v>62.960446</v>
+        <v>22.568627</v>
       </c>
       <c r="O19">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="P19">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="Q19">
-        <v>2194.383467961236</v>
+        <v>967.6431956073047</v>
       </c>
       <c r="R19">
-        <v>19749.45121165113</v>
+        <v>8708.788760465743</v>
       </c>
       <c r="S19">
-        <v>0.0328232858227555</v>
+        <v>0.008507949229158844</v>
       </c>
       <c r="T19">
-        <v>0.03282328582275551</v>
+        <v>0.008507949229158844</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H20">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I20">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J20">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.004819666666666667</v>
+        <v>0.1271313333333333</v>
       </c>
       <c r="N20">
-        <v>0.014459</v>
+        <v>0.381394</v>
       </c>
       <c r="O20">
-        <v>4.905670228042789E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="P20">
-        <v>4.90567022804279E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="Q20">
-        <v>0.6736659233531112</v>
+        <v>29.63514545080556</v>
       </c>
       <c r="R20">
-        <v>6.062993310178</v>
+        <v>266.71630905725</v>
       </c>
       <c r="S20">
-        <v>1.007660214092548E-05</v>
+        <v>0.000260565375790142</v>
       </c>
       <c r="T20">
-        <v>1.007660214092548E-05</v>
+        <v>0.000260565375790142</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H21">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I21">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J21">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.012926</v>
       </c>
       <c r="O21">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="P21">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="Q21">
-        <v>0.6022412148324444</v>
+        <v>1.004378385861111</v>
       </c>
       <c r="R21">
-        <v>5.420170933492</v>
+        <v>9.03940547275</v>
       </c>
       <c r="S21">
-        <v>9.008241183595183E-06</v>
+        <v>8.830941355824624E-06</v>
       </c>
       <c r="T21">
-        <v>9.008241183595184E-06</v>
+        <v>8.830941355824624E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H22">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I22">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J22">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.61914433333333</v>
+        <v>18.891577</v>
       </c>
       <c r="N22">
-        <v>49.857433</v>
+        <v>56.67473100000001</v>
       </c>
       <c r="O22">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="P22">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="Q22">
-        <v>2322.93060640161</v>
+        <v>4403.750181099542</v>
       </c>
       <c r="R22">
-        <v>20906.37545761449</v>
+        <v>39633.75162989588</v>
       </c>
       <c r="S22">
-        <v>0.03474607622303401</v>
+        <v>0.03871972967802381</v>
       </c>
       <c r="T22">
-        <v>0.03474607622303401</v>
+        <v>0.03871972967802382</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H23">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I23">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J23">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.001810333333333333</v>
+        <v>0.01396866666666667</v>
       </c>
       <c r="N23">
-        <v>0.005431</v>
+        <v>0.041906</v>
       </c>
       <c r="O23">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="P23">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="Q23">
-        <v>0.2530382204668889</v>
+        <v>3.256187578361111</v>
       </c>
       <c r="R23">
-        <v>2.277343984202</v>
+        <v>29.30568820525</v>
       </c>
       <c r="S23">
-        <v>3.784910867097744E-06</v>
+        <v>2.86298490219083E-05</v>
       </c>
       <c r="T23">
-        <v>3.784910867097745E-06</v>
+        <v>2.86298490219083E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H24">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I24">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J24">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>60.62995566666667</v>
+        <v>81.50486266666667</v>
       </c>
       <c r="N24">
-        <v>181.889867</v>
+        <v>244.514588</v>
       </c>
       <c r="O24">
-        <v>0.6171185457670396</v>
+        <v>0.7542226514793733</v>
       </c>
       <c r="P24">
-        <v>0.6171185457670397</v>
+        <v>0.7542226514793734</v>
       </c>
       <c r="Q24">
-        <v>8474.514503155791</v>
+        <v>18999.31666524328</v>
       </c>
       <c r="R24">
-        <v>76270.63052840212</v>
+        <v>170993.8499871895</v>
       </c>
       <c r="S24">
-        <v>0.1267606212894979</v>
+        <v>0.1670504399869735</v>
       </c>
       <c r="T24">
-        <v>0.126760621289498</v>
+        <v>0.1670504399869735</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H25">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I25">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J25">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.98681533333333</v>
+        <v>7.522875666666667</v>
       </c>
       <c r="N25">
-        <v>62.960446</v>
+        <v>22.568627</v>
       </c>
       <c r="O25">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="P25">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="Q25">
-        <v>2933.41911538237</v>
+        <v>1753.631530044986</v>
       </c>
       <c r="R25">
-        <v>26400.77203844133</v>
+        <v>15782.68377040487</v>
       </c>
       <c r="S25">
-        <v>0.04387767929713141</v>
+        <v>0.01541870814780135</v>
       </c>
       <c r="T25">
-        <v>0.04387767929713142</v>
+        <v>0.01541870814780135</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H26">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I26">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J26">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.004819666666666667</v>
+        <v>0.1271313333333333</v>
       </c>
       <c r="N26">
-        <v>0.014459</v>
+        <v>0.381394</v>
       </c>
       <c r="O26">
-        <v>4.905670228042789E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="P26">
-        <v>4.90567022804279E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="Q26">
-        <v>0.181483555482</v>
+        <v>4.710735104365333</v>
       </c>
       <c r="R26">
-        <v>1.633351999338</v>
+        <v>42.396615939288</v>
       </c>
       <c r="S26">
-        <v>2.714606038866139E-06</v>
+        <v>4.141887762131439E-05</v>
       </c>
       <c r="T26">
-        <v>2.71460603886614E-06</v>
+        <v>4.141887762131439E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H27">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I27">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J27">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.012926</v>
       </c>
       <c r="O27">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="P27">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="Q27">
-        <v>0.162241955748</v>
+        <v>0.1596536965946666</v>
       </c>
       <c r="R27">
-        <v>1.460177601732</v>
+        <v>1.436883269352</v>
       </c>
       <c r="S27">
-        <v>2.426792838950392E-06</v>
+        <v>1.403746288963932E-06</v>
       </c>
       <c r="T27">
-        <v>2.426792838950392E-06</v>
+        <v>1.403746288963932E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H28">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I28">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J28">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.61914433333333</v>
+        <v>18.891577</v>
       </c>
       <c r="N28">
-        <v>49.857433</v>
+        <v>56.67473100000001</v>
       </c>
       <c r="O28">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="P28">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="Q28">
-        <v>625.7904563279341</v>
+        <v>700.010081050468</v>
       </c>
       <c r="R28">
-        <v>5632.114106951406</v>
+        <v>6300.090729454213</v>
       </c>
       <c r="S28">
-        <v>0.009360487495965417</v>
+        <v>0.006154799885446318</v>
       </c>
       <c r="T28">
-        <v>0.009360487495965417</v>
+        <v>0.006154799885446319</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H29">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I29">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J29">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.001810333333333333</v>
+        <v>0.01396866666666667</v>
       </c>
       <c r="N29">
-        <v>0.005431</v>
+        <v>0.041906</v>
       </c>
       <c r="O29">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="P29">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="Q29">
-        <v>0.06816772873800001</v>
+        <v>0.5175961480346666</v>
       </c>
       <c r="R29">
-        <v>0.613509558642</v>
+        <v>4.658365332312</v>
       </c>
       <c r="S29">
-        <v>1.019643502115084E-06</v>
+        <v>4.550935477744277E-06</v>
       </c>
       <c r="T29">
-        <v>1.019643502115084E-06</v>
+        <v>4.550935477744277E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H30">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I30">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J30">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>60.62995566666667</v>
+        <v>81.50486266666667</v>
       </c>
       <c r="N30">
-        <v>181.889867</v>
+        <v>244.514588</v>
       </c>
       <c r="O30">
-        <v>0.6171185457670396</v>
+        <v>0.7542226514793733</v>
       </c>
       <c r="P30">
-        <v>0.6171185457670397</v>
+        <v>0.7542226514793734</v>
       </c>
       <c r="Q30">
-        <v>2283.008490857466</v>
+        <v>3020.088027659131</v>
       </c>
       <c r="R30">
-        <v>20547.07641771719</v>
+        <v>27180.79224893218</v>
       </c>
       <c r="S30">
-        <v>0.03414892671462473</v>
+        <v>0.02655395679270809</v>
       </c>
       <c r="T30">
-        <v>0.03414892671462474</v>
+        <v>0.02655395679270809</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H31">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I31">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J31">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.98681533333333</v>
+        <v>7.522875666666667</v>
       </c>
       <c r="N31">
-        <v>62.960446</v>
+        <v>22.568627</v>
       </c>
       <c r="O31">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="P31">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="Q31">
-        <v>790.254208092708</v>
+        <v>278.7532668742226</v>
       </c>
       <c r="R31">
-        <v>7112.287872834372</v>
+        <v>2508.779401868004</v>
       </c>
       <c r="S31">
-        <v>0.01182051365386994</v>
+        <v>0.002450922667357357</v>
       </c>
       <c r="T31">
-        <v>0.01182051365386994</v>
+        <v>0.002450922667357357</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H32">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I32">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J32">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.004819666666666667</v>
+        <v>0.1271313333333333</v>
       </c>
       <c r="N32">
-        <v>0.014459</v>
+        <v>0.381394</v>
       </c>
       <c r="O32">
-        <v>4.905670228042789E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="P32">
-        <v>4.90567022804279E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="Q32">
-        <v>0.3781194794565555</v>
+        <v>36.48392900098845</v>
       </c>
       <c r="R32">
-        <v>3.403075315109</v>
+        <v>328.355361008896</v>
       </c>
       <c r="S32">
-        <v>5.655859119684769E-06</v>
+        <v>0.0003207829260100698</v>
       </c>
       <c r="T32">
-        <v>5.655859119684772E-06</v>
+        <v>0.0003207829260100698</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H33">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I33">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J33">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.012926</v>
       </c>
       <c r="O33">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="P33">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="Q33">
-        <v>0.3380297663362222</v>
+        <v>1.236493668664889</v>
       </c>
       <c r="R33">
-        <v>3.042267897026</v>
+        <v>11.128443017984</v>
       </c>
       <c r="S33">
-        <v>5.05620270980326E-06</v>
+        <v>1.087180213009686E-05</v>
       </c>
       <c r="T33">
-        <v>5.05620270980326E-06</v>
+        <v>1.087180213009686E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H34">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I34">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J34">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.61914433333333</v>
+        <v>18.891577</v>
       </c>
       <c r="N34">
-        <v>49.857433</v>
+        <v>56.67473100000001</v>
       </c>
       <c r="O34">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="P34">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="Q34">
-        <v>1303.829214537665</v>
+        <v>5421.471921304789</v>
       </c>
       <c r="R34">
-        <v>11734.46293083898</v>
+        <v>48793.24729174311</v>
       </c>
       <c r="S34">
-        <v>0.01950249789868749</v>
+        <v>0.04766799173823817</v>
       </c>
       <c r="T34">
-        <v>0.01950249789868749</v>
+        <v>0.04766799173823818</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H35">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I35">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J35">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.001810333333333333</v>
+        <v>0.01396866666666667</v>
       </c>
       <c r="N35">
-        <v>0.005431</v>
+        <v>0.041906</v>
       </c>
       <c r="O35">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="P35">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="Q35">
-        <v>0.1420268962534444</v>
+        <v>4.008703673144888</v>
       </c>
       <c r="R35">
-        <v>1.278242066281</v>
+        <v>36.078333058304</v>
       </c>
       <c r="S35">
-        <v>2.124418761948128E-06</v>
+        <v>3.524630512639944E-05</v>
       </c>
       <c r="T35">
-        <v>2.124418761948129E-06</v>
+        <v>3.524630512639944E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H36">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I36">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J36">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>60.62995566666667</v>
+        <v>81.50486266666667</v>
       </c>
       <c r="N36">
-        <v>181.889867</v>
+        <v>244.514588</v>
       </c>
       <c r="O36">
-        <v>0.6171185457670396</v>
+        <v>0.7542226514793733</v>
       </c>
       <c r="P36">
-        <v>0.6171185457670397</v>
+        <v>0.7542226514793734</v>
       </c>
       <c r="Q36">
-        <v>4756.629215607035</v>
+        <v>23390.12377829211</v>
       </c>
       <c r="R36">
-        <v>42809.66294046331</v>
+        <v>210511.114004629</v>
       </c>
       <c r="S36">
-        <v>0.07114900498306936</v>
+        <v>0.2056563684556828</v>
       </c>
       <c r="T36">
-        <v>0.07114900498306939</v>
+        <v>0.2056563684556829</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H37">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I37">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J37">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.98681533333333</v>
+        <v>7.522875666666667</v>
       </c>
       <c r="N37">
-        <v>62.960446</v>
+        <v>22.568627</v>
       </c>
       <c r="O37">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="P37">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="Q37">
-        <v>1646.488074408505</v>
+        <v>2158.901779046841</v>
       </c>
       <c r="R37">
-        <v>14818.39266967654</v>
+        <v>19430.11601142157</v>
       </c>
       <c r="S37">
-        <v>0.02462794195231486</v>
+        <v>0.01898202437660232</v>
       </c>
       <c r="T37">
-        <v>0.02462794195231486</v>
+        <v>0.01898202437660232</v>
       </c>
     </row>
   </sheetData>
